--- a/examples/symreg/custom/custom2.xlsx
+++ b/examples/symreg/custom/custom2.xlsx
@@ -163,23 +163,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -215,23 +198,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -384,10 +350,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -415,322 +381,962 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f t="shared" ref="A3:A22" ca="1" si="0">-1+RAND()*(1--1)</f>
-        <v>-0.61867168517587601</v>
+        <f ca="1">-10+RAND()*(10--10)</f>
+        <v>-7.4399760239594688</v>
       </c>
       <c r="B3">
-        <v>-0.45052852947264899</v>
+        <v>9.4569886534547685</v>
       </c>
       <c r="C3">
         <f>3*POWER(B3,3)+2*POWER(B3,2)</f>
-        <v>0.13161253498996467</v>
+        <v>2716.216236784067</v>
       </c>
       <c r="D3">
-        <v>0.13161253498996467</v>
+        <v>2716.216236784067</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.5156563538799297</v>
+        <f t="shared" ref="A4:A62" ca="1" si="0">-10+RAND()*(10--10)</f>
+        <v>-6.0744550429615334</v>
       </c>
       <c r="B4">
-        <v>0.78422637796029504</v>
+        <v>-1.9573369322092091</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C22" si="1">3*POWER(B4,3)+2*POWER(B4,2)</f>
-        <v>2.6769455985550161</v>
+        <f t="shared" ref="C4:C62" si="1">3*POWER(B4,3)+2*POWER(B4,2)</f>
+        <v>-14.834323341581118</v>
       </c>
       <c r="D4">
-        <v>2.6769455985550161</v>
+        <v>-14.834323341581118</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40838503967408379</v>
+        <v>0.87484887838983738</v>
       </c>
       <c r="B5">
-        <v>0.41286573605611898</v>
+        <v>-5.4415236058122503</v>
       </c>
       <c r="C5">
         <f t="shared" si="1"/>
-        <v>0.5520451786169065</v>
+        <v>-424.15310818857932</v>
       </c>
       <c r="D5">
-        <v>0.5520451786169065</v>
+        <v>-424.15310818857932</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.85284668005009578</v>
+        <v>1.9058578289694594</v>
       </c>
       <c r="B6">
-        <v>0.17335251159966</v>
+        <v>-0.73904155464682475</v>
       </c>
       <c r="C6">
         <f t="shared" si="1"/>
-        <v>7.5730484043944724E-2</v>
+        <v>-0.1185896742830026</v>
       </c>
       <c r="D6">
-        <v>7.5730484043944724E-2</v>
+        <v>-0.1185896742830026</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70553658175094403</v>
+        <v>-9.8423005986538659</v>
       </c>
       <c r="B7">
-        <v>-2.3631087969988598E-2</v>
+        <v>1.1598003678074065</v>
       </c>
       <c r="C7">
         <f t="shared" si="1"/>
-        <v>1.0772678311221572E-3</v>
+        <v>7.3705445766687872</v>
       </c>
       <c r="D7">
-        <v>1.0772678311221572E-3</v>
+        <v>7.3705445766687872</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62201924501699701</v>
+        <v>4.3736887153335662</v>
       </c>
       <c r="B8">
-        <v>5.7561154942959603E-2</v>
+        <v>-0.68711717192635469</v>
       </c>
       <c r="C8">
         <f t="shared" si="1"/>
-        <v>7.1987229196046392E-3</v>
+        <v>-2.8965891632886653E-2</v>
       </c>
       <c r="D8">
-        <v>7.1987229196046392E-3</v>
+        <v>-2.8965891632886653E-2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39129916475496751</v>
+        <v>2.0762367288677375</v>
       </c>
       <c r="B9">
-        <v>0.45310056768357798</v>
+        <v>5.5153037775199394</v>
       </c>
       <c r="C9">
         <f t="shared" si="1"/>
-        <v>0.68966505765162989</v>
+        <v>564.1402088766622</v>
       </c>
       <c r="D9">
-        <v>0.68966505765162989</v>
+        <v>564.1402088766622</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98149773688295583</v>
+        <v>9.0650205998157958</v>
       </c>
       <c r="B10">
-        <v>0.34215874411165698</v>
+        <v>1.2494391481535772</v>
       </c>
       <c r="C10">
         <f t="shared" si="1"/>
-        <v>0.35431746003727127</v>
+        <v>8.9736879289993237</v>
       </c>
       <c r="D10">
-        <v>0.35431746003727127</v>
+        <v>8.9736879289993237</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58230935155750818</v>
+        <v>-1.7627295374660168</v>
       </c>
       <c r="B11">
-        <v>-0.33469059458002398</v>
+        <v>0.50681783478941611</v>
       </c>
       <c r="C11">
         <f t="shared" si="1"/>
-        <v>0.11156168186771354</v>
+        <v>0.90427888725553052</v>
       </c>
       <c r="D11">
-        <v>0.11156168186771354</v>
+        <v>0.90427888725553052</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.67700287702577544</v>
+        <v>-6.5762394300554199</v>
       </c>
       <c r="B12">
-        <v>-0.55012790299951997</v>
+        <v>7.2197499203180797</v>
       </c>
       <c r="C12">
         <f t="shared" si="1"/>
-        <v>0.10580812241690063</v>
+        <v>1233.233399604439</v>
       </c>
       <c r="D12">
-        <v>0.10580812241690063</v>
+        <v>1233.233399604439</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85790408991780343</v>
+        <v>8.4721796277894725</v>
       </c>
       <c r="B13">
-        <v>-0.27868299791589402</v>
+        <v>-4.0203492184964613</v>
       </c>
       <c r="C13">
         <f t="shared" si="1"/>
-        <v>9.0397339252210496E-2</v>
+        <v>-162.61880433038925</v>
       </c>
       <c r="D13">
-        <v>9.0397339252210496E-2</v>
+        <v>-162.61880433038925</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.24292793779290034</v>
+        <v>8.4489392910984762</v>
       </c>
       <c r="B14">
-        <v>0.41246838262304703</v>
+        <v>-8.7306025115800079</v>
       </c>
       <c r="C14">
         <f t="shared" si="1"/>
-        <v>0.55078027736480761</v>
+        <v>-1843.9823114859032</v>
       </c>
       <c r="D14">
-        <v>0.55078027736480761</v>
+        <v>-1843.9823114859032</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.5802914156717871</v>
+        <v>9.815879681366944</v>
       </c>
       <c r="B15">
-        <v>0.104016896337271</v>
+        <v>-5.1728493533898749</v>
       </c>
       <c r="C15">
         <f t="shared" si="1"/>
-        <v>2.5015266471562037E-2</v>
+        <v>-361.73431670852153</v>
       </c>
       <c r="D15">
-        <v>2.5015266471562037E-2</v>
+        <v>-361.73431670852153</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" ca="1" si="0"/>
-        <v>-9.0936222628175134E-3</v>
+        <v>3.3911706701234685</v>
       </c>
       <c r="B16">
-        <v>-0.891278950963169</v>
+        <v>-6.9665270161530408</v>
       </c>
       <c r="C16">
         <f t="shared" si="1"/>
-        <v>-0.53528128501900674</v>
+        <v>-917.24389203723536</v>
       </c>
       <c r="D16">
-        <v>-0.53528128501900674</v>
+        <v>-917.24389203723536</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36208522051323078</v>
+        <v>1.6503175372103929</v>
       </c>
       <c r="B17">
-        <v>-0.89848090196028396</v>
+        <v>-8.1693623071574351E-2</v>
       </c>
       <c r="C17">
         <f t="shared" si="1"/>
-        <v>-0.56140859443577851</v>
+        <v>1.1712063619882586E-2</v>
       </c>
       <c r="D17">
-        <v>-0.56140859443577851</v>
+        <v>1.1712063619882586E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91493209600728354</v>
+        <v>5.0926187813489783</v>
       </c>
       <c r="B18">
-        <v>0.95090699382126298</v>
+        <v>8.9429812264029245</v>
       </c>
       <c r="C18">
         <f t="shared" si="1"/>
-        <v>4.3879473149010932</v>
+        <v>2305.649926735126</v>
       </c>
       <c r="D18">
-        <v>4.3879473149010932</v>
+        <v>2305.649926735126</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.17706412480826228</v>
+        <v>6.5831216170164382</v>
       </c>
       <c r="B19">
-        <v>0.40076122945174603</v>
+        <v>-3.6485744241050604</v>
       </c>
       <c r="C19">
         <f t="shared" si="1"/>
-        <v>0.51431738389019543</v>
+        <v>-119.08632098105726</v>
       </c>
       <c r="D19">
-        <v>0.51431738389019543</v>
+        <v>-119.08632098105726</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.48373937610120921</v>
+        <v>1.3526359929335001</v>
       </c>
       <c r="B20">
-        <v>-0.52091623889282301</v>
+        <v>4.1870099458104164</v>
       </c>
       <c r="C20">
         <f t="shared" si="1"/>
-        <v>0.11864976577682806</v>
+        <v>255.27017542260509</v>
       </c>
       <c r="D20">
-        <v>0.11864976577682806</v>
+        <v>255.27017542260509</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96264911446902834</v>
+        <v>2.2528703868728961</v>
       </c>
       <c r="B21">
-        <v>-0.81373833725228895</v>
+        <v>4.7288182571151811</v>
       </c>
       <c r="C21">
         <f t="shared" si="1"/>
-        <v>-0.29215938030029798</v>
+        <v>361.95700352390747</v>
       </c>
       <c r="D21">
-        <v>-0.29215938030029798</v>
+        <v>361.95700352390747</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <f t="shared" ca="1" si="0"/>
-        <v>-0.12059953228992581</v>
+        <v>1.9118085230113913</v>
       </c>
       <c r="B22">
-        <v>-0.80893450696021296</v>
+        <v>-9.4965969807187243</v>
       </c>
       <c r="C22">
         <f t="shared" si="1"/>
-        <v>-0.27928956957634776</v>
+        <v>-2388.9911791783552</v>
       </c>
       <c r="D22">
-        <v>-0.27928956957634776</v>
+        <v>-2388.9911791783552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f ca="1">-10+RAND()*(10--10)</f>
+        <v>1.4425880344796553</v>
+      </c>
+      <c r="B23">
+        <v>4.5170296446952101</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>317.29752654039009</v>
+      </c>
+      <c r="D23">
+        <v>317.29752654039009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9581245014773536</v>
+      </c>
+      <c r="B24">
+        <v>6.579488545011543</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>941.05099308074989</v>
+      </c>
+      <c r="D24">
+        <v>941.05099308074989</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.4229992640992544</v>
+      </c>
+      <c r="B25">
+        <v>-1.0412874911841925</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>-1.2185811974426519</v>
+      </c>
+      <c r="D25">
+        <v>-1.2185811974426519</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.4767033168466064</v>
+      </c>
+      <c r="B26">
+        <v>6.1158710714970574</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>761.07966186431918</v>
+      </c>
+      <c r="D26">
+        <v>761.07966186431918</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9195993978790256</v>
+      </c>
+      <c r="B27">
+        <v>0.36276216300691111</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>0.4064073436964078</v>
+      </c>
+      <c r="D27">
+        <v>0.4064073436964078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.9579216910903554</v>
+      </c>
+      <c r="B28">
+        <v>-1.6931414614471016</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>-8.8278721325604828</v>
+      </c>
+      <c r="D28">
+        <v>-8.8278721325604828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.56924664339402575</v>
+      </c>
+      <c r="B29">
+        <v>0.25668331407942446</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>0.18250840723370473</v>
+      </c>
+      <c r="D29">
+        <v>0.18250840723370473</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3855035353551699</v>
+      </c>
+      <c r="B30">
+        <v>-4.8720827579279451</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>-299.47428740972435</v>
+      </c>
+      <c r="D30">
+        <v>-299.47428740972435</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.4358011434711564</v>
+      </c>
+      <c r="B31">
+        <v>6.3963371559529278</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>866.90875983447552</v>
+      </c>
+      <c r="D31">
+        <v>866.90875983447552</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.6572880568066601</v>
+      </c>
+      <c r="B32">
+        <v>2.4770409060687015</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>57.86683816031568</v>
+      </c>
+      <c r="D32">
+        <v>57.86683816031568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" ca="1" si="0"/>
+        <v>6.66899194374977</v>
+      </c>
+      <c r="B33">
+        <v>-1.6904706374846654</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>-8.7771461064062457</v>
+      </c>
+      <c r="D33">
+        <v>-8.7771461064062457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.9216336015518305</v>
+      </c>
+      <c r="B34">
+        <v>4.6714292872351511</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>349.46781868297023</v>
+      </c>
+      <c r="D34">
+        <v>349.46781868297023</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.7164402382955295</v>
+      </c>
+      <c r="B35">
+        <v>-9.8734617461961705</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>-2692.5800731753066</v>
+      </c>
+      <c r="D35">
+        <v>-2692.5800731753066</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8644302314817267</v>
+      </c>
+      <c r="B36">
+        <v>5.3210048321950438</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>508.58848965983179</v>
+      </c>
+      <c r="D36">
+        <v>508.58848965983179</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.8232479090975389</v>
+      </c>
+      <c r="B37">
+        <v>2.6422368604511419</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>69.302492374654165</v>
+      </c>
+      <c r="D37">
+        <v>69.302492374654165</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8589276899854141</v>
+      </c>
+      <c r="B38">
+        <v>-2.6925899355025162</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>-44.06407761619959</v>
+      </c>
+      <c r="D38">
+        <v>-44.06407761619959</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.8408269351398836</v>
+      </c>
+      <c r="B39">
+        <v>-4.9716803710416286</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>-319.22889398591565</v>
+      </c>
+      <c r="D39">
+        <v>-319.22889398591565</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.9741482971378836</v>
+      </c>
+      <c r="B40">
+        <v>-3.2260292697906561</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>-79.907893370204803</v>
+      </c>
+      <c r="D40">
+        <v>-79.907893370204803</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.9453846120763458</v>
+      </c>
+      <c r="B41">
+        <v>-9.5801458116099312</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>-2454.2157888714596</v>
+      </c>
+      <c r="D41">
+        <v>-2454.2157888714596</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4.7614261752448073</v>
+      </c>
+      <c r="B42">
+        <v>4.7091170765186892</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>357.63665155872792</v>
+      </c>
+      <c r="D42">
+        <v>357.63665155872792</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f ca="1">-10+RAND()*(10--10)</f>
+        <v>8.2698773902602163</v>
+      </c>
+      <c r="B43">
+        <v>-3.9168063765011629</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>-149.5848088839609</v>
+      </c>
+      <c r="D43">
+        <v>-149.5848088839609</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.9784895965595748</v>
+      </c>
+      <c r="B44">
+        <v>-2.2202317917000514</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>-22.974567915690216</v>
+      </c>
+      <c r="D44">
+        <v>-22.974567915690216</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9.7124412100692439</v>
+      </c>
+      <c r="B45">
+        <v>7.3784849790885403</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>1313.9834172715202</v>
+      </c>
+      <c r="D45">
+        <v>1313.9834172715202</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.5531383362836308</v>
+      </c>
+      <c r="B46">
+        <v>-0.36157239875487868</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>0.11965913081343327</v>
+      </c>
+      <c r="D46">
+        <v>0.11965913081343327</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.22273690530530388</v>
+      </c>
+      <c r="B47">
+        <v>-1.9664127928184794</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>-15.077494137463235</v>
+      </c>
+      <c r="D47">
+        <v>-15.077494137463235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" ca="1" si="0"/>
+        <v>9.1873012519169777</v>
+      </c>
+      <c r="B48">
+        <v>-9.4949532138714492</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>-2387.7196522035383</v>
+      </c>
+      <c r="D48">
+        <v>-2387.7196522035383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.4305451692790339</v>
+      </c>
+      <c r="B49">
+        <v>1.3864196911395688</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>11.839078710362472</v>
+      </c>
+      <c r="D49">
+        <v>11.839078710362472</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.6315266981491412</v>
+      </c>
+      <c r="B50">
+        <v>7.4979172723756946</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>1377.0084387582908</v>
+      </c>
+      <c r="D50">
+        <v>1377.0084387582908</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.9262135325200695</v>
+      </c>
+      <c r="B51">
+        <v>-0.26940200900177658</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>8.6497358492275106E-2</v>
+      </c>
+      <c r="D51">
+        <v>8.6497358492275106E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.4638899230287805</v>
+      </c>
+      <c r="B52">
+        <v>-7.7608794917854222</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>-1281.8799290124953</v>
+      </c>
+      <c r="D52">
+        <v>-1281.8799290124953</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6.001396050916612</v>
+      </c>
+      <c r="B53">
+        <v>5.9331039828797749</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>696.96989226562425</v>
+      </c>
+      <c r="D53">
+        <v>696.96989226562425</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" ca="1" si="0"/>
+        <v>-8.666015910573428</v>
+      </c>
+      <c r="B54">
+        <v>0.89016776100910633</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>3.7009004623834003</v>
+      </c>
+      <c r="D54">
+        <v>3.7009004623834003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" ca="1" si="0"/>
+        <v>5.564656023027279</v>
+      </c>
+      <c r="B55">
+        <v>9.0681578548245092</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>2401.5272847547626</v>
+      </c>
+      <c r="D55">
+        <v>2401.5272847547626</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.6448323059328382</v>
+      </c>
+      <c r="B56">
+        <v>-3.8728178307936005</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>-144.26447105234493</v>
+      </c>
+      <c r="D56">
+        <v>-144.26447105234493</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" ca="1" si="0"/>
+        <v>-0.11840188489802017</v>
+      </c>
+      <c r="B57">
+        <v>-2.7692800728840528</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>-48.374272316919274</v>
+      </c>
+      <c r="D57">
+        <v>-48.374272316919274</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" ca="1" si="0"/>
+        <v>-7.2672410796790317</v>
+      </c>
+      <c r="B58">
+        <v>-9.9874888699440429</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>-2789.2541967738607</v>
+      </c>
+      <c r="D58">
+        <v>-2789.2541967738607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" ca="1" si="0"/>
+        <v>-5.8111615527050242</v>
+      </c>
+      <c r="B59">
+        <v>-1.7320099450140631</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>-9.5876371059132737</v>
+      </c>
+      <c r="D59">
+        <v>-9.5876371059132737</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" ca="1" si="0"/>
+        <v>7.4172663613303484</v>
+      </c>
+      <c r="B60">
+        <v>-3.5636291531026938</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>-110.36951456547175</v>
+      </c>
+      <c r="D60">
+        <v>-110.36951456547175</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9297854361945568</v>
+      </c>
+      <c r="B61">
+        <v>8.2838817309648292</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>1842.632299473391</v>
+      </c>
+      <c r="D61">
+        <v>1842.632299473391</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.4296549956696687</v>
+      </c>
+      <c r="B62">
+        <v>-3.2735025136864131</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>-83.8031410075873</v>
+      </c>
+      <c r="D62">
+        <v>-83.8031410075873</v>
       </c>
     </row>
   </sheetData>
